--- a/usecases/completenessimxgeo.xlsx
+++ b/usecases/completenessimxgeo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtinggeonovum.sharepoint.com/sites/msteams_3b4803/Gedeelde documenten/General/Werkdossier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Github\Geonovum\WaU-imx-geo\usecases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{6B9AB145-7571-4D04-B67C-EEC24FF8D881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC484149-E83F-4F5B-8EAA-208250DF139E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0043F84-9B0A-461E-A5CD-33A21D30B9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="-15720" windowWidth="21600" windowHeight="11385" tabRatio="779" xr2:uid="{85869263-DDB8-4112-9416-6487B3FAF632}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{85869263-DDB8-4112-9416-6487B3FAF632}"/>
   </bookViews>
   <sheets>
     <sheet name="Samenvatting" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,8 @@
     <sheet name="BRK in IMXGeo" sheetId="6" r:id="rId5"/>
     <sheet name="DiS-Geo in IMXGeo" sheetId="9" r:id="rId6"/>
     <sheet name="IMRO in IMXGeo" sheetId="7" r:id="rId7"/>
-    <sheet name="IMKL in IMXGeo" sheetId="8" r:id="rId8"/>
-    <sheet name="BRO in IMXGeo" sheetId="10" r:id="rId9"/>
-    <sheet name="TO DELETE" sheetId="1" r:id="rId10"/>
+    <sheet name="BRO in IMXGeo" sheetId="10" r:id="rId8"/>
+    <sheet name="TO DELETE" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="237">
   <si>
     <t>BAG</t>
   </si>
@@ -831,13 +830,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{26B3ABF8-E991-4E09-AF70-DAE46CFDC902}" name="Tabel11" displayName="Tabel11" ref="A1:G10" totalsRowCount="1">
-  <autoFilter ref="A1:G9" xr:uid="{26B3ABF8-E991-4E09-AF70-DAE46CFDC902}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{26B3ABF8-E991-4E09-AF70-DAE46CFDC902}" name="Tabel11" displayName="Tabel11" ref="A1:G9" totalsRowCount="1">
+  <autoFilter ref="A1:G8" xr:uid="{26B3ABF8-E991-4E09-AF70-DAE46CFDC902}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{37103E9D-7DDA-4EE8-ADEF-65754B6B9D17}" name="Model"/>
     <tableColumn id="2" xr3:uid="{A03BAA48-27A5-40FF-BF30-646B9259599E}" name="Bronmodel" totalsRowFunction="custom">
@@ -861,23 +856,6 @@
       <calculatedColumnFormula>Tabel11[[#This Row],['# nog toevoegen]]/Tabel11[[#This Row],['# na toevoegen]]</calculatedColumnFormula>
       <totalsRowFormula>Tabel11[[#Totals],['# nog toevoegen]]/Tabel11[[#Totals],['# na toevoegen]]</totalsRowFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6ED1053B-9AC2-4432-B70E-0605CA26405C}" name="Tabel2" displayName="Tabel2" ref="A1:H170" totalsRowShown="0">
-  <autoFilter ref="A1:H170" xr:uid="{6ED1053B-9AC2-4432-B70E-0605CA26405C}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9749D08A-BDDB-4773-8546-0165AE415903}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{4E24E7A2-E073-4682-93C7-917ED973046C}" name="Categorie"/>
-    <tableColumn id="3" xr3:uid="{9DE9AD5C-62CD-493E-95A1-E5437EA7873D}" name="Objecttype"/>
-    <tableColumn id="4" xr3:uid="{0942671D-3090-4248-8628-BE2FF13B4DCD}" name="In IMX-Geo?"/>
-    <tableColumn id="5" xr3:uid="{48C262BC-E52F-4230-BDD4-78E0132777F0}" name="bij clusterbegrip…"/>
-    <tableColumn id="6" xr3:uid="{5BEDFB61-1331-4818-938A-ADAD7A7C5D4D}" name="Nog opnemen?"/>
-    <tableColumn id="7" xr3:uid="{AAC2388A-3239-4CF0-AAC8-989AE49076A1}" name="als…"/>
-    <tableColumn id="8" xr3:uid="{E2584911-A0E6-4B56-AEDD-3075A8FE6EDE}" name="Toelichting"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,23 +964,6 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6860C02-F859-46A2-896A-42CF2FEB0267}" name="Tabel2456789" displayName="Tabel2456789" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{6ED1053B-9AC2-4432-B70E-0605CA26405C}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6C4862BA-9C90-4FD5-A296-C6465FC46F42}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{5D6EB900-8680-479A-8F54-D860A45C5C4A}" name="Categorie"/>
-    <tableColumn id="3" xr3:uid="{29F7509A-E0DB-4671-BD02-38C144C129DC}" name="Objecttype"/>
-    <tableColumn id="4" xr3:uid="{E2BC15F1-FB4D-41FF-ABED-2D38DBDE83D6}" name="In IMX-Geo?"/>
-    <tableColumn id="5" xr3:uid="{9BE97720-EED1-41A2-9A0D-8573D05211DF}" name="bij clusterbegrip…"/>
-    <tableColumn id="6" xr3:uid="{25502541-229E-4A93-82C5-19AE36A600A8}" name="Nog opnemen?"/>
-    <tableColumn id="7" xr3:uid="{BE36C526-2ABA-48D0-B0EE-128E50B4A037}" name="als…"/>
-    <tableColumn id="8" xr3:uid="{F8E25CFD-AB36-4917-8392-3B834706C2D9}" name="Toelichting"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{008A9A4D-3F68-4B31-AA6B-8072BF44DFB1}" name="Tabel24567891011" displayName="Tabel24567891011" ref="A1:H20" totalsRowShown="0">
   <autoFilter ref="A1:H20" xr:uid="{6ED1053B-9AC2-4432-B70E-0605CA26405C}"/>
   <tableColumns count="8">
@@ -1014,6 +975,23 @@
     <tableColumn id="6" xr3:uid="{44B4B05F-0731-4241-BE78-F71F0743D162}" name="Nog opnemen?"/>
     <tableColumn id="7" xr3:uid="{8357CDC7-7633-46E7-A9E6-ACD74B4C6985}" name="als…"/>
     <tableColumn id="8" xr3:uid="{BFC23D30-D7F6-4929-B00A-704F8DEB2D81}" name="Toelichting"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6ED1053B-9AC2-4432-B70E-0605CA26405C}" name="Tabel2" displayName="Tabel2" ref="A1:H170" totalsRowShown="0">
+  <autoFilter ref="A1:H170" xr:uid="{6ED1053B-9AC2-4432-B70E-0605CA26405C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9749D08A-BDDB-4773-8546-0165AE415903}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{4E24E7A2-E073-4682-93C7-917ED973046C}" name="Categorie"/>
+    <tableColumn id="3" xr3:uid="{9DE9AD5C-62CD-493E-95A1-E5437EA7873D}" name="Objecttype"/>
+    <tableColumn id="4" xr3:uid="{0942671D-3090-4248-8628-BE2FF13B4DCD}" name="In IMX-Geo?"/>
+    <tableColumn id="5" xr3:uid="{48C262BC-E52F-4230-BDD4-78E0132777F0}" name="bij clusterbegrip…"/>
+    <tableColumn id="6" xr3:uid="{5BEDFB61-1331-4818-938A-ADAD7A7C5D4D}" name="Nog opnemen?"/>
+    <tableColumn id="7" xr3:uid="{AAC2388A-3239-4CF0-AAC8-989AE49076A1}" name="als…"/>
+    <tableColumn id="8" xr3:uid="{E2584911-A0E6-4B56-AEDD-3075A8FE6EDE}" name="Toelichting"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1316,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400CB73D-3FE0-44C1-ADEB-152B42D02631}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,28 +1486,28 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>'TO DELETE'!A86</f>
-        <v>IMKL | Kabels en Leidingen</v>
+        <f>'TO DELETE'!A140</f>
+        <v>DiS-Geo Bestuurlijke gebieden</v>
       </c>
       <c r="B7">
-        <f>COUNTA('IMKL in IMXGeo'!C$2:C$999)</f>
-        <v>54</v>
+        <f>COUNTA('DiS-Geo in IMXGeo'!C$2:C$999)</f>
+        <v>12</v>
       </c>
       <c r="C7">
-        <f>COUNTIF('IMKL in IMXGeo'!D$2:D$999, "Ja")</f>
-        <v>1</v>
+        <f>COUNTIF('DiS-Geo in IMXGeo'!D$2:D$999, "Ja")</f>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <f>Tabel11[[#This Row],['# in IMX-Geo]]/Tabel11[[#This Row],[Bronmodel]]</f>
-        <v>1.8518518518518517E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E7">
-        <f>COUNTIF('IMKL in IMXGeo'!F$2:F$999, "Ja")</f>
+        <f>COUNTIF('DiS-Geo in IMXGeo'!F$2:F$999, "Ja")</f>
         <v>0</v>
       </c>
       <c r="F7">
         <f>Tabel11[[#This Row],['# in IMX-Geo]]+Tabel11[[#This Row],['# nog toevoegen]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <f>Tabel11[[#This Row],['# nog toevoegen]]/Tabel11[[#This Row],['# na toevoegen]]</f>
@@ -1538,28 +1516,28 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>'TO DELETE'!A140</f>
-        <v>DiS-Geo Bestuurlijke gebieden</v>
+        <f>'TO DELETE'!A152</f>
+        <v>BRO</v>
       </c>
       <c r="B8">
-        <f>COUNTA('DiS-Geo in IMXGeo'!C$2:C$999)</f>
-        <v>12</v>
+        <f>COUNTA('BRO in IMXGeo'!C$2:C$999)</f>
+        <v>19</v>
       </c>
       <c r="C8">
-        <f>COUNTIF('DiS-Geo in IMXGeo'!D$2:D$999, "Ja")</f>
-        <v>8</v>
+        <f>COUNTIF('BRO in IMXGeo'!D$2:D$999, "Ja")</f>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <f>Tabel11[[#This Row],['# in IMX-Geo]]/Tabel11[[#This Row],[Bronmodel]]</f>
-        <v>0.66666666666666663</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="E8">
-        <f>COUNTIF('DiS-Geo in IMXGeo'!F$2:F$999, "Ja")</f>
+        <f>COUNTIF('BRO in IMXGeo'!F$2:F$999, "Ja")</f>
         <v>0</v>
       </c>
       <c r="F8">
         <f>Tabel11[[#This Row],['# in IMX-Geo]]+Tabel11[[#This Row],['# nog toevoegen]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
         <f>Tabel11[[#This Row],['# nog toevoegen]]/Tabel11[[#This Row],['# na toevoegen]]</f>
@@ -1567,57 +1545,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>'TO DELETE'!A152</f>
-        <v>BRO</v>
-      </c>
       <c r="B9">
-        <f>COUNTA('BRO in IMXGeo'!C$2:C$999)</f>
-        <v>19</v>
+        <f>SUM(Tabel11[Bronmodel])</f>
+        <v>116</v>
       </c>
       <c r="C9">
-        <f>COUNTIF('BRO in IMXGeo'!D$2:D$999, "Ja")</f>
-        <v>7</v>
+        <f>SUM(Tabel11['# in IMX-Geo])</f>
+        <v>70</v>
       </c>
       <c r="D9" s="2">
-        <f>Tabel11[[#This Row],['# in IMX-Geo]]/Tabel11[[#This Row],[Bronmodel]]</f>
-        <v>0.36842105263157893</v>
+        <f>Tabel11[[#Totals],['# in IMX-Geo]]/Tabel11[[#Totals],[Bronmodel]]</f>
+        <v>0.60344827586206895</v>
       </c>
       <c r="E9">
-        <f>COUNTIF('BRO in IMXGeo'!F$2:F$999, "Ja")</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>Tabel11[[#This Row],['# in IMX-Geo]]+Tabel11[[#This Row],['# nog toevoegen]]</f>
-        <v>7</v>
-      </c>
-      <c r="G9" s="2">
-        <f>Tabel11[[#This Row],['# nog toevoegen]]/Tabel11[[#This Row],['# na toevoegen]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>SUM(Tabel11[Bronmodel])</f>
-        <v>170</v>
-      </c>
-      <c r="C10">
-        <f>SUM(Tabel11['# in IMX-Geo])</f>
-        <v>71</v>
-      </c>
-      <c r="D10" s="2">
-        <f>Tabel11[[#Totals],['# in IMX-Geo]]/Tabel11[[#Totals],[Bronmodel]]</f>
-        <v>0.41764705882352943</v>
-      </c>
-      <c r="E10">
         <f>SUM(Tabel11['# nog toevoegen])</f>
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F9">
         <f>SUM(Tabel11['# na toevoegen])</f>
-        <v>71</v>
-      </c>
-      <c r="G10" s="2">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2">
         <f>Tabel11[[#Totals],['# nog toevoegen]]/Tabel11[[#Totals],['# na toevoegen]]</f>
         <v>0</v>
       </c>
@@ -1626,2343 +1574,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B55533-BE67-4E23-9E01-C0CB08EEAD94}">
-  <dimension ref="A1:H170"/>
-  <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>216</v>
-      </c>
-      <c r="B57" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C91" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>144</v>
-      </c>
-      <c r="C92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>144</v>
-      </c>
-      <c r="C95" t="s">
-        <v>103</v>
-      </c>
-      <c r="F95" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B101" t="s">
-        <v>144</v>
-      </c>
-      <c r="C101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" t="s">
-        <v>111</v>
-      </c>
-      <c r="F103" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" t="s">
-        <v>144</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>93</v>
-      </c>
-      <c r="B105" t="s">
-        <v>144</v>
-      </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>93</v>
-      </c>
-      <c r="B107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B108" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B109" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D109" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>93</v>
-      </c>
-      <c r="B112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C112" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>93</v>
-      </c>
-      <c r="B113" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>93</v>
-      </c>
-      <c r="B114" t="s">
-        <v>144</v>
-      </c>
-      <c r="C114" t="s">
-        <v>122</v>
-      </c>
-      <c r="F114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>93</v>
-      </c>
-      <c r="B116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" t="s">
-        <v>26</v>
-      </c>
-      <c r="F116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>93</v>
-      </c>
-      <c r="B117" t="s">
-        <v>144</v>
-      </c>
-      <c r="C117" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>93</v>
-      </c>
-      <c r="B118" t="s">
-        <v>144</v>
-      </c>
-      <c r="C118" t="s">
-        <v>124</v>
-      </c>
-      <c r="F118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>93</v>
-      </c>
-      <c r="B120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>93</v>
-      </c>
-      <c r="B121" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>93</v>
-      </c>
-      <c r="B123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C123" t="s">
-        <v>127</v>
-      </c>
-      <c r="F123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>93</v>
-      </c>
-      <c r="B124" t="s">
-        <v>144</v>
-      </c>
-      <c r="C124" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>93</v>
-      </c>
-      <c r="B126" t="s">
-        <v>144</v>
-      </c>
-      <c r="C126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>93</v>
-      </c>
-      <c r="B127" t="s">
-        <v>144</v>
-      </c>
-      <c r="C127" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>93</v>
-      </c>
-      <c r="B128" t="s">
-        <v>144</v>
-      </c>
-      <c r="C128" t="s">
-        <v>132</v>
-      </c>
-      <c r="F128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>93</v>
-      </c>
-      <c r="B129" t="s">
-        <v>144</v>
-      </c>
-      <c r="C129" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>93</v>
-      </c>
-      <c r="B130" t="s">
-        <v>144</v>
-      </c>
-      <c r="C130" t="s">
-        <v>134</v>
-      </c>
-      <c r="F130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>93</v>
-      </c>
-      <c r="B131" t="s">
-        <v>144</v>
-      </c>
-      <c r="C131" t="s">
-        <v>135</v>
-      </c>
-      <c r="F131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>93</v>
-      </c>
-      <c r="B132" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>93</v>
-      </c>
-      <c r="B133" t="s">
-        <v>144</v>
-      </c>
-      <c r="C133" t="s">
-        <v>137</v>
-      </c>
-      <c r="F133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>93</v>
-      </c>
-      <c r="B134" t="s">
-        <v>144</v>
-      </c>
-      <c r="C134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>93</v>
-      </c>
-      <c r="B135" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>93</v>
-      </c>
-      <c r="B136" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>93</v>
-      </c>
-      <c r="B137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>93</v>
-      </c>
-      <c r="B138" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>93</v>
-      </c>
-      <c r="B139" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" t="s">
-        <v>143</v>
-      </c>
-      <c r="F139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" t="s">
-        <v>173</v>
-      </c>
-      <c r="C140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>151</v>
-      </c>
-      <c r="B141" t="s">
-        <v>173</v>
-      </c>
-      <c r="C141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" t="s">
-        <v>173</v>
-      </c>
-      <c r="C143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>151</v>
-      </c>
-      <c r="B144" t="s">
-        <v>173</v>
-      </c>
-      <c r="C144" t="s">
-        <v>166</v>
-      </c>
-      <c r="D144" t="s">
-        <v>160</v>
-      </c>
-      <c r="E144" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145" t="s">
-        <v>173</v>
-      </c>
-      <c r="C145" t="s">
-        <v>167</v>
-      </c>
-      <c r="D145" t="s">
-        <v>160</v>
-      </c>
-      <c r="E145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" t="s">
-        <v>173</v>
-      </c>
-      <c r="C146" t="s">
-        <v>168</v>
-      </c>
-      <c r="F146" t="s">
-        <v>152</v>
-      </c>
-      <c r="G146" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>151</v>
-      </c>
-      <c r="B147" t="s">
-        <v>173</v>
-      </c>
-      <c r="C147" t="s">
-        <v>169</v>
-      </c>
-      <c r="F147" t="s">
-        <v>152</v>
-      </c>
-      <c r="G147" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" t="s">
-        <v>173</v>
-      </c>
-      <c r="C148" t="s">
-        <v>170</v>
-      </c>
-      <c r="F148" t="s">
-        <v>152</v>
-      </c>
-      <c r="G148" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="s">
-        <v>173</v>
-      </c>
-      <c r="C149" t="s">
-        <v>171</v>
-      </c>
-      <c r="F149" t="s">
-        <v>152</v>
-      </c>
-      <c r="G149" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" t="s">
-        <v>173</v>
-      </c>
-      <c r="C150" t="s">
-        <v>39</v>
-      </c>
-      <c r="D150" t="s">
-        <v>152</v>
-      </c>
-      <c r="E150" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>173</v>
-      </c>
-      <c r="C151" t="s">
-        <v>172</v>
-      </c>
-      <c r="D151" t="s">
-        <v>152</v>
-      </c>
-      <c r="E151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>174</v>
-      </c>
-      <c r="B152" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" t="s">
-        <v>180</v>
-      </c>
-      <c r="C153" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>174</v>
-      </c>
-      <c r="B154" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>174</v>
-      </c>
-      <c r="B155" t="s">
-        <v>180</v>
-      </c>
-      <c r="C155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>174</v>
-      </c>
-      <c r="B156" t="s">
-        <v>180</v>
-      </c>
-      <c r="C156" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>174</v>
-      </c>
-      <c r="B157" t="s">
-        <v>183</v>
-      </c>
-      <c r="C157" t="s">
-        <v>181</v>
-      </c>
-      <c r="F157" t="s">
-        <v>152</v>
-      </c>
-      <c r="H157" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>174</v>
-      </c>
-      <c r="B158" t="s">
-        <v>183</v>
-      </c>
-      <c r="C158" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>174</v>
-      </c>
-      <c r="B159" t="s">
-        <v>184</v>
-      </c>
-      <c r="C159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>174</v>
-      </c>
-      <c r="B160" t="s">
-        <v>184</v>
-      </c>
-      <c r="C160" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>174</v>
-      </c>
-      <c r="B161" t="s">
-        <v>184</v>
-      </c>
-      <c r="C161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>174</v>
-      </c>
-      <c r="B162" t="s">
-        <v>184</v>
-      </c>
-      <c r="C162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163" t="s">
-        <v>198</v>
-      </c>
-      <c r="C163" t="s">
-        <v>189</v>
-      </c>
-      <c r="D163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E163" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>174</v>
-      </c>
-      <c r="B164" t="s">
-        <v>198</v>
-      </c>
-      <c r="C164" t="s">
-        <v>190</v>
-      </c>
-      <c r="G164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>174</v>
-      </c>
-      <c r="B165" t="s">
-        <v>198</v>
-      </c>
-      <c r="C165" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" t="s">
-        <v>198</v>
-      </c>
-      <c r="C166" t="s">
-        <v>192</v>
-      </c>
-      <c r="G166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>174</v>
-      </c>
-      <c r="B167" t="s">
-        <v>198</v>
-      </c>
-      <c r="C167" t="s">
-        <v>193</v>
-      </c>
-      <c r="E167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>174</v>
-      </c>
-      <c r="B168" t="s">
-        <v>198</v>
-      </c>
-      <c r="C168" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" t="s">
-        <v>195</v>
-      </c>
-      <c r="F169" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>174</v>
-      </c>
-      <c r="B170" t="s">
-        <v>197</v>
-      </c>
-      <c r="C170" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5134,7 +2745,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,661 +3396,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994D1729-5E80-4578-8884-732F1EE7943C}">
-  <dimension ref="A1:H55"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4590705A-400E-4A65-90C4-E4E1231FBA7C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -6748,27 +3704,2344 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B55533-BE67-4E23-9E01-C0CB08EEAD94}">
+  <dimension ref="A1:H170"/>
+  <sheetViews>
+    <sheetView topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
+      </c>
+      <c r="F131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>93</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>93</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>93</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" t="s">
+        <v>167</v>
+      </c>
+      <c r="D145" t="s">
+        <v>160</v>
+      </c>
+      <c r="E145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="F146" t="s">
+        <v>152</v>
+      </c>
+      <c r="G146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" t="s">
+        <v>152</v>
+      </c>
+      <c r="G147" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" t="s">
+        <v>170</v>
+      </c>
+      <c r="F148" t="s">
+        <v>152</v>
+      </c>
+      <c r="G148" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" t="s">
+        <v>171</v>
+      </c>
+      <c r="F149" t="s">
+        <v>152</v>
+      </c>
+      <c r="G149" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D151" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>183</v>
+      </c>
+      <c r="C157" t="s">
+        <v>181</v>
+      </c>
+      <c r="F157" t="s">
+        <v>152</v>
+      </c>
+      <c r="H157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" t="s">
+        <v>184</v>
+      </c>
+      <c r="C159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163" t="s">
+        <v>189</v>
+      </c>
+      <c r="D163" t="s">
+        <v>152</v>
+      </c>
+      <c r="E163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" t="s">
+        <v>190</v>
+      </c>
+      <c r="G164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" t="s">
+        <v>198</v>
+      </c>
+      <c r="C165" t="s">
+        <v>191</v>
+      </c>
+      <c r="G165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" t="s">
+        <v>198</v>
+      </c>
+      <c r="C166" t="s">
+        <v>192</v>
+      </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="s">
+        <v>198</v>
+      </c>
+      <c r="C167" t="s">
+        <v>193</v>
+      </c>
+      <c r="E167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>198</v>
+      </c>
+      <c r="C168" t="s">
+        <v>194</v>
+      </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" t="s">
+        <v>195</v>
+      </c>
+      <c r="F169" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>197</v>
+      </c>
+      <c r="C170" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2312ca2d-abeb-41a0-a28c-2d4b4f48f6b1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e554ffb-3533-4b70-a73a-3094116e1965">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001742DC0F1D83874E8D5AA39F26EF7A11" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5fb2ee5073d26ea5f25ad0866607ad68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e554ffb-3533-4b70-a73a-3094116e1965" xmlns:ns3="2312ca2d-abeb-41a0-a28c-2d4b4f48f6b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb635e22ad03fe2eccff085427015657" ns2:_="" ns3:_="">
     <xsd:import namespace="2e554ffb-3533-4b70-a73a-3094116e1965"/>
@@ -6985,10 +6258,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2312ca2d-abeb-41a0-a28c-2d4b4f48f6b1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e554ffb-3533-4b70-a73a-3094116e1965">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AEF59CA-7B86-4BD0-981F-1940061CEA34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C443EC-7FA1-4B93-90B9-29CAA250291D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e554ffb-3533-4b70-a73a-3094116e1965"/>
+    <ds:schemaRef ds:uri="2312ca2d-abeb-41a0-a28c-2d4b4f48f6b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7005,20 +6309,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C443EC-7FA1-4B93-90B9-29CAA250291D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AEF59CA-7B86-4BD0-981F-1940061CEA34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e554ffb-3533-4b70-a73a-3094116e1965"/>
-    <ds:schemaRef ds:uri="2312ca2d-abeb-41a0-a28c-2d4b4f48f6b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>